--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1739.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1739.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7316226976416109</v>
+        <v>1.044248342514038</v>
       </c>
       <c r="B1">
-        <v>1.627871957228213</v>
+        <v>1.120322823524475</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.088485123894147</v>
+        <v>1.636504650115967</v>
       </c>
       <c r="E1">
-        <v>1.423858342183735</v>
+        <v>0.9877536296844482</v>
       </c>
     </row>
   </sheetData>
